--- a/evaluation images/auswertung/Auswertung.xlsx
+++ b/evaluation images/auswertung/Auswertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="23540" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frameworks" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="OpenCV Quality" sheetId="3" r:id="rId4"/>
     <sheet name="OpenCV Jaccard" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="68">
   <si>
     <t>Vision</t>
   </si>
@@ -52,12 +52,6 @@
     <t>HP Scan SDK</t>
   </si>
   <si>
-    <t>Viereck Erkannt</t>
-  </si>
-  <si>
-    <t>Karte Enthalten</t>
-  </si>
-  <si>
     <t>Gute Erkennung</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>Erfolgreich</t>
-  </si>
-  <si>
-    <t>Nicht Erfolgreich</t>
   </si>
   <si>
     <t>Kategorie 1</t>
@@ -92,9 +83,6 @@
   </si>
   <si>
     <t>Kategorie 8</t>
-  </si>
-  <si>
-    <t>Keine Gute Erkennung</t>
   </si>
   <si>
     <t>Position</t>
@@ -202,9 +190,6 @@
     <t>Jaccard Index Kategorie 3</t>
   </si>
   <si>
-    <t>Jaccard Index  Kategorie 4</t>
-  </si>
-  <si>
     <t>Jaccard Index Kategorie 5</t>
   </si>
   <si>
@@ -230,6 +215,18 @@
   </si>
   <si>
     <t>Unbekannte Eigenentwicklung</t>
+  </si>
+  <si>
+    <t>Karte enthalten</t>
+  </si>
+  <si>
+    <t>Viereck erkannt</t>
+  </si>
+  <si>
+    <t>Nicht erfolgreich</t>
+  </si>
+  <si>
+    <t>Keine gute Erkennung</t>
   </si>
 </sst>
 </file>
@@ -2470,11 +2467,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2020697352"/>
-        <c:axId val="2020700296"/>
+        <c:axId val="2127650872"/>
+        <c:axId val="2128493800"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2020700296"/>
+        <c:axId val="2128493800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,12 +2482,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2020697352"/>
+        <c:crossAx val="2127650872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2020697352"/>
+        <c:axId val="2127650872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2020700296"/>
+        <c:crossAx val="2128493800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,10 +2570,10 @@
                   <c:v>Gute Erkennung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Viereck Erkannt</c:v>
+                  <c:v>Viereck erkannt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Karte Enthalten</c:v>
+                  <c:v>Karte enthalten</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2609,7 +2606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nicht Erfolgreich</c:v>
+                  <c:v>Nicht erfolgreich</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2633,10 +2630,10 @@
                   <c:v>Gute Erkennung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Viereck Erkannt</c:v>
+                  <c:v>Viereck erkannt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Karte Enthalten</c:v>
+                  <c:v>Karte enthalten</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2670,11 +2667,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2125458136"/>
-        <c:axId val="-2121781880"/>
+        <c:axId val="2135199352"/>
+        <c:axId val="2135202328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125458136"/>
+        <c:axId val="2135199352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121781880"/>
+        <c:crossAx val="2135202328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121781880"/>
+        <c:axId val="2135202328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125458136"/>
+        <c:crossAx val="2135199352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2844,7 +2841,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keine Gute Erkennung</c:v>
+                  <c:v>Keine gute Erkennung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2935,11 +2932,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2128276344"/>
-        <c:axId val="2127837368"/>
+        <c:axId val="2135177752"/>
+        <c:axId val="2135180728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128276344"/>
+        <c:axId val="2135177752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127837368"/>
+        <c:crossAx val="2135180728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2956,7 +2953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127837368"/>
+        <c:axId val="2135180728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +2964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128276344"/>
+        <c:crossAx val="2135177752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3200,11 +3197,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2111775448"/>
-        <c:axId val="-2118604280"/>
+        <c:axId val="2135294168"/>
+        <c:axId val="2135297144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111775448"/>
+        <c:axId val="2135294168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118604280"/>
+        <c:crossAx val="2135297144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3221,7 +3218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118604280"/>
+        <c:axId val="2135297144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,14 +3229,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111775448"/>
+        <c:crossAx val="2135294168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3284,7 +3280,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3388,11 +3383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109681560"/>
-        <c:axId val="-2109666984"/>
+        <c:axId val="2135210056"/>
+        <c:axId val="2135213080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109681560"/>
+        <c:axId val="2135210056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,12 +3397,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109666984"/>
+        <c:crossAx val="2135213080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109666984"/>
+        <c:axId val="2135213080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,14 +3413,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109681560"/>
+        <c:crossAx val="2135210056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3494,10 +3488,10 @@
                   <c:v>Gute Erkennung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Karte Enthalten</c:v>
+                  <c:v>Karte enthalten</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Viereck Erkannt</c:v>
+                  <c:v>Viereck erkannt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3530,7 +3524,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nicht Erfolgreich</c:v>
+                  <c:v>Nicht erfolgreich</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3554,10 +3548,10 @@
                   <c:v>Gute Erkennung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Karte Enthalten</c:v>
+                  <c:v>Karte enthalten</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Viereck Erkannt</c:v>
+                  <c:v>Viereck erkannt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3569,7 +3563,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>174.0</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>114.0</c:v>
@@ -3591,11 +3585,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2126505816"/>
-        <c:axId val="-2120642232"/>
+        <c:axId val="2135143896"/>
+        <c:axId val="2135146872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126505816"/>
+        <c:axId val="2135143896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,7 +3598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120642232"/>
+        <c:crossAx val="2135146872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3612,7 +3606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120642232"/>
+        <c:axId val="2135146872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,14 +3617,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126505816"/>
+        <c:crossAx val="2135143896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3765,7 +3758,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keine Gute Erkennung</c:v>
+                  <c:v>Keine gute Erkennung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3856,11 +3849,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2118521448"/>
-        <c:axId val="-2121786680"/>
+        <c:axId val="2136682104"/>
+        <c:axId val="2135863464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118521448"/>
+        <c:axId val="2136682104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121786680"/>
+        <c:crossAx val="2135863464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3877,7 +3870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121786680"/>
+        <c:axId val="2135863464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,14 +3881,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118521448"/>
+        <c:crossAx val="2136682104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3973,7 +3965,7 @@
                   <c:v>Jaccard Index Kategorie 5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jaccard Index  Kategorie 4</c:v>
+                  <c:v>Jaccard Index Kategorie 4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Jaccard Index Kategorie 3</c:v>
@@ -4057,7 +4049,7 @@
                   <c:v>Jaccard Index Kategorie 5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jaccard Index  Kategorie 4</c:v>
+                  <c:v>Jaccard Index Kategorie 4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Jaccard Index Kategorie 3</c:v>
@@ -4115,11 +4107,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2117388040"/>
-        <c:axId val="-2118150472"/>
+        <c:axId val="2134927544"/>
+        <c:axId val="2134930520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2117388040"/>
+        <c:axId val="2134927544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4128,7 +4120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118150472"/>
+        <c:crossAx val="2134930520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4136,7 +4128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118150472"/>
+        <c:axId val="2134930520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,14 +4139,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117388040"/>
+        <c:crossAx val="2134927544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4199,7 +4190,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4303,11 +4293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2113909144"/>
-        <c:axId val="-2113896840"/>
+        <c:axId val="2135918056"/>
+        <c:axId val="2135921080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2113909144"/>
+        <c:axId val="2135918056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,12 +4307,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113896840"/>
+        <c:crossAx val="2135921080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2113896840"/>
+        <c:axId val="2135921080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4333,14 +4323,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113909144"/>
+        <c:crossAx val="2135918056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4974,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -5025,7 +5014,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5065,7 +5054,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5079,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5092,18 +5080,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>72</v>
@@ -5118,7 +5106,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>134</v>
@@ -5133,7 +5121,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>134</v>
@@ -5148,24 +5136,24 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18">
-        <f>D18-B18</f>
+        <f t="shared" ref="C18:C25" si="0">D18-B18</f>
         <v>17</v>
       </c>
       <c r="D18">
@@ -5174,13 +5162,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19">
-        <f>D19-B19</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D19">
@@ -5189,13 +5177,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20">
-        <f>D20-B20</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D20">
@@ -5204,13 +5192,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>9</v>
       </c>
       <c r="C21">
-        <f>D21-B21</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D21">
@@ -5219,13 +5207,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <f>D22-B22</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D22">
@@ -5234,13 +5222,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>14</v>
       </c>
       <c r="C23">
-        <f>D23-B23</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D23">
@@ -5249,13 +5237,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <f>D24-B24</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D24">
@@ -5264,13 +5252,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
       <c r="C25">
-        <f>D25-B25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D25">
@@ -5282,7 +5270,6 @@
     <sortCondition descending="1" ref="A19:A25"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5296,8 +5283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F164" sqref="F164:F171"/>
     </sheetView>
   </sheetViews>
@@ -5314,138 +5301,138 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5">
         <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10">
         <v>0.44230000000000003</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" s="10">
         <v>0.44750000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="10">
         <v>0.36799999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10">
         <v>0.53720000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10">
         <v>0.54610000000000003</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <f>COUNTIF(G2:G9,"JA")</f>
@@ -5466,97 +5453,97 @@
         <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" s="10">
         <v>0.66810000000000003</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="10">
         <v>0.55349999999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <f>COUNTIF(G11:G18,"JA")</f>
@@ -5577,97 +5564,97 @@
         <v>90</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F20" s="10">
         <v>0.55600000000000005</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F22" s="10">
         <v>0.25569999999999998</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F26" s="10">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F27" s="10">
         <v>0.44340000000000002</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <f>COUNTIF(G20:G27,"JA")</f>
@@ -5684,96 +5671,96 @@
     </row>
     <row r="29" spans="3:9">
       <c r="C29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F29" s="10">
         <v>0.30759999999999998</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="E30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F30" s="10">
         <v>0.7056</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="E31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F31" s="10">
         <v>0.27539999999999998</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="E32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="4:9">
       <c r="E33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F33" s="10">
         <v>0.34739999999999999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="4:9">
       <c r="E34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="4:9">
       <c r="E35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="4:9">
       <c r="E36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <f>COUNTIF(G29:G36,"JA")</f>
@@ -5793,90 +5780,90 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="4:9">
       <c r="E39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F39" s="10">
         <v>0.72599999999999998</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="4:9">
       <c r="E40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F40" s="10">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="4:9">
       <c r="E41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F41" s="10">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="4:9">
       <c r="E42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F42" s="10">
         <v>0.53100000000000003</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="4:9">
       <c r="E43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F43" s="10">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="4:9">
       <c r="E44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F44" s="10">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="4:9">
       <c r="E45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <f>COUNTIF(G38:G45,"JA")</f>
@@ -5896,90 +5883,90 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F47" s="10">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="4:9">
       <c r="E48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F48" s="15">
         <v>0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="E49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="E50" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="E51" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="E52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="E53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F53" s="15">
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="E54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F54" s="10">
         <v>0.54210000000000003</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <f>COUNTIF(G47:G54,"JA")</f>
@@ -5996,106 +5983,106 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D56" s="5">
         <v>60</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F56" s="10">
         <v>0.62739999999999996</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F57" s="10">
         <v>0.78339999999999999</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F58" s="10">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="D59" s="5"/>
       <c r="E59" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F59" s="10">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="D60" s="5"/>
       <c r="E60" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F60" s="10">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F61" s="10">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="D62" s="5"/>
       <c r="E62" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F62" s="10">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F63" s="10">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <f>COUNTIF(G56:G63,"JA")</f>
@@ -6116,97 +6103,97 @@
         <v>75</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F65" s="10">
         <v>0.67200000000000004</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="4:9">
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F66" s="10">
         <v>0.75970000000000004</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="4:9">
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F67" s="10">
         <v>0.45300000000000001</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="4:9">
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F68" s="10">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="4:9">
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F69" s="10">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="4:9">
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F70" s="10">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="4:9">
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F71" s="10">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="4:9">
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <f>COUNTIF(G65:G72,"JA")</f>
@@ -6227,97 +6214,97 @@
         <v>90</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F74" s="10">
         <v>0.75419999999999998</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="4:9">
       <c r="D75" s="5"/>
       <c r="E75" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F75" s="10">
         <v>0.65559999999999996</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="4:9">
       <c r="D76" s="5"/>
       <c r="E76" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F76" s="10">
         <v>0.4889</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="4:9">
       <c r="D77" s="5"/>
       <c r="E77" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F77" s="10">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="4:9">
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F78" s="10">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="4:9">
       <c r="D79" s="5"/>
       <c r="E79" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F79" s="10">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="4:9">
       <c r="D80" s="5"/>
       <c r="E80" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F80" s="10">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="3:9">
       <c r="D81" s="5"/>
       <c r="E81" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F81" s="10">
         <v>0.78820000000000001</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <f>COUNTIF(G74:G81,"JA")</f>
@@ -6334,96 +6321,96 @@
     </row>
     <row r="83" spans="3:9">
       <c r="C83" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D83" s="4">
         <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F83" s="10">
         <v>0.70830000000000004</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="3:9">
       <c r="E84" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F84" s="10">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="3:9">
       <c r="E85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F85" s="10">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="3:9">
       <c r="E86" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F86" s="10">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="3:9">
       <c r="E87" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F87" s="10">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="3:9">
       <c r="E88" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F88" s="10">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="3:9">
       <c r="E89" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F89" s="10">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="3:9">
       <c r="E90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F90" s="10">
         <v>0.79979999999999996</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <f>COUNTIF(G83:G90,"JA")</f>
@@ -6443,97 +6430,97 @@
         <v>75</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F92" s="10">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="3:9">
       <c r="E93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F93" s="10">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="3:9">
       <c r="E94" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F94" s="10">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="3:9">
       <c r="E95" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F95" s="10">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="3:9">
       <c r="E96" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F96" s="10">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="E97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F97" s="10">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="E98" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F98" s="10">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="E99" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F99" s="10">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <f>COUNTIF(G92:G99,"JA")</f>
         <v>0</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -6545,90 +6532,90 @@
         <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F101" s="10">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="E102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F102" s="10">
         <v>0.81130000000000002</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="E103" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F103" s="10">
         <v>0.4279</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="E104" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F104" s="10">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="E105" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F105" s="10">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="E106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F106" s="10">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="E107" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F107" s="10">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="E108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F108" s="10">
         <v>0.7762</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <f>COUNTIF(G101:G108,"JA")</f>
@@ -6645,109 +6632,109 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D110" s="5">
         <v>60</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F110" s="10">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="D111" s="5"/>
       <c r="E111" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F111" s="10">
         <v>0.40450000000000003</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="D112" s="5"/>
       <c r="E112" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F112" s="10">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="4:9">
       <c r="D113" s="5"/>
       <c r="E113" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F113" s="10">
         <v>0.8508</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="4:9">
       <c r="D114" s="5"/>
       <c r="E114" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F114" s="10">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="4:9">
       <c r="D115" s="5"/>
       <c r="E115" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F115" s="10">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="4:9">
       <c r="D116" s="5"/>
       <c r="E116" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F116" s="10">
         <v>0.78920000000000001</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="4:9">
       <c r="D117" s="5"/>
       <c r="E117" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F117" s="10">
         <v>0.5393</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <f>COUNTIF(G110:G117,"JA")</f>
@@ -6768,97 +6755,97 @@
         <v>75</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F119" s="10">
         <v>0.53710000000000002</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="4:9">
       <c r="D120" s="5"/>
       <c r="E120" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F120" s="10">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="4:9">
       <c r="D121" s="5"/>
       <c r="E121" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F121" s="10">
         <v>0.27789999999999998</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="4:9">
       <c r="D122" s="5"/>
       <c r="E122" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F122" s="10">
         <v>0.44230000000000003</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="4:9">
       <c r="D123" s="5"/>
       <c r="E123" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F123" s="10">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="4:9">
       <c r="D124" s="5"/>
       <c r="E124" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F124" s="10">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="4:9">
       <c r="D125" s="5"/>
       <c r="E125" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F125" s="10">
         <v>0.57489999999999997</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="4:9">
       <c r="D126" s="5"/>
       <c r="E126" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F126" s="10">
         <v>0.61799999999999999</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H126">
         <f>COUNTIF(G119:G126,"JA")</f>
@@ -6879,97 +6866,97 @@
         <v>90</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F128" s="10">
         <v>0.4899</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="3:9">
       <c r="D129" s="5"/>
       <c r="E129" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F129" s="10">
         <v>0.57979999999999998</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="D130" s="5"/>
       <c r="E130" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F130" s="10">
         <v>0.47620000000000001</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="D131" s="5"/>
       <c r="E131" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F131" s="10">
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="D132" s="5"/>
       <c r="E132" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F132" s="10">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="3:9">
       <c r="D133" s="5"/>
       <c r="E133" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F133" s="10">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="3:9">
       <c r="D134" s="5"/>
       <c r="E134" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F134" s="10">
         <v>0.71889999999999998</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="3:9">
       <c r="D135" s="5"/>
       <c r="E135" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F135" s="10">
         <v>0.9002</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <f>COUNTIF(G128:G135,"JA")</f>
@@ -6986,103 +6973,103 @@
     </row>
     <row r="137" spans="3:9">
       <c r="C137" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D137" s="4">
         <v>60</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F137" s="10">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="3:9">
       <c r="E138" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F138" s="10">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="3:9">
       <c r="E139" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F139" s="10">
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="3:9">
       <c r="E140" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F140" s="10">
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="3:9">
       <c r="E141" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F141" s="10">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="3:9">
       <c r="E142" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F142" s="10">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="3:9">
       <c r="E143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F143" s="10">
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="3:9">
       <c r="E144" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F144" s="10">
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <f>COUNTIF(G137:G144,"JA")</f>
         <v>0</v>
       </c>
       <c r="I144" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -7094,97 +7081,97 @@
         <v>75</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F146" s="10">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="4:9">
       <c r="E147" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F147" s="10">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="4:9">
       <c r="E148" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F148" s="10">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="4:9">
       <c r="E149" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F149" s="10">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="4:9">
       <c r="E150" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F150" s="10">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="4:9">
       <c r="E151" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F151" s="10">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="4:9">
       <c r="E152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F152" s="10">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="4:9">
       <c r="E153" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F153" s="10">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <f>COUNTIF(G146:G153,"JA")</f>
         <v>0</v>
       </c>
       <c r="I153" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -7196,90 +7183,90 @@
         <v>90</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F155" s="10">
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="4:9">
       <c r="E156" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F156" s="10">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="4:9">
       <c r="E157" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F157" s="10">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="4:9">
       <c r="E158" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F158" s="10">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="4:9">
       <c r="E159" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F159" s="10">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="4:9">
       <c r="E160" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F160" s="10">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="2:9">
       <c r="E161" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F161" s="10">
         <v>0.70499999999999996</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="2:9">
       <c r="E162" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F162" s="10">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <f>COUNTIF(G155:G162,"JA")</f>
@@ -7296,106 +7283,106 @@
     </row>
     <row r="164" spans="2:9">
       <c r="B164" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D164" s="5">
         <v>60</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F164" s="10">
         <v>0.77700000000000002</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="2:9">
       <c r="D165" s="5"/>
       <c r="E165" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F165" s="10">
         <v>0.84889999999999999</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="2:9">
       <c r="D166" s="5"/>
       <c r="E166" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F166" s="10">
         <v>0.74519999999999997</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="2:9">
       <c r="D167" s="5"/>
       <c r="E167" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F167" s="10">
         <v>0.87029999999999996</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="2:9">
       <c r="D168" s="5"/>
       <c r="E168" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F168" s="10">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="2:9">
       <c r="D169" s="5"/>
       <c r="E169" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F169" s="10">
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="2:9">
       <c r="D170" s="5"/>
       <c r="E170" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F170" s="10">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="2:9">
       <c r="D171" s="5"/>
       <c r="E171" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F171" s="10">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H171">
         <f>COUNTIF(G164:G171,"JA")</f>
@@ -7416,97 +7403,97 @@
         <v>75</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F173" s="10">
         <v>0.58850000000000002</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="2:9">
       <c r="D174" s="5"/>
       <c r="E174" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F174" s="10">
         <v>0.75660000000000005</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="2:9">
       <c r="D175" s="5"/>
       <c r="E175" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F175" s="10">
         <v>0.43940000000000001</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="2:9">
       <c r="D176" s="5"/>
       <c r="E176" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F176" s="10">
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="3:9">
       <c r="D177" s="5"/>
       <c r="E177" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F177" s="10">
         <v>0.76039999999999996</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="3:9">
       <c r="D178" s="5"/>
       <c r="E178" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F178" s="10">
         <v>0.83240000000000003</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="3:9">
       <c r="D179" s="5"/>
       <c r="E179" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F179" s="10">
         <v>0.73280000000000001</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="3:9">
       <c r="D180" s="5"/>
       <c r="E180" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F180" s="10">
         <v>0.78720000000000001</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <f>COUNTIF(G173:G180,"JA")</f>
@@ -7527,97 +7514,97 @@
         <v>90</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F182" s="10">
         <v>0.76859999999999995</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="3:9">
       <c r="D183" s="5"/>
       <c r="E183" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F183" s="10">
         <v>0.91459999999999997</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184" spans="3:9">
       <c r="D184" s="5"/>
       <c r="E184" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F184" s="10">
         <v>0.81310000000000004</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="3:9">
       <c r="D185" s="5"/>
       <c r="E185" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F185" s="10">
         <v>0.79910000000000003</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="3:9">
       <c r="D186" s="5"/>
       <c r="E186" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F186" s="10">
         <v>0.76759999999999995</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187" spans="3:9">
       <c r="D187" s="5"/>
       <c r="E187" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F187" s="10">
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="3:9">
       <c r="D188" s="5"/>
       <c r="E188" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F188" s="10">
         <v>0.67159999999999997</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="3:9">
       <c r="D189" s="5"/>
       <c r="E189" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F189" s="10">
         <v>0.87660000000000005</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <f>COUNTIF(G182:G189,"JA")</f>
@@ -7634,96 +7621,96 @@
     </row>
     <row r="191" spans="3:9">
       <c r="C191" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D191" s="4">
         <v>60</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F191" s="10">
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="3:9">
       <c r="E192" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F192" s="10">
         <v>0.64810000000000001</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="4:9">
       <c r="E193" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F193" s="10">
         <v>0.4294</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="4:9">
       <c r="E194" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F194" s="10">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="4:9">
       <c r="E195" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F195" s="10">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="4:9">
       <c r="E196" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F196" s="10">
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="4:9">
       <c r="E197" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F197" s="10">
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="4:9">
       <c r="E198" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F198" s="10">
         <v>0.78200000000000003</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <f>COUNTIF(G191:G198,"JA")</f>
@@ -7743,90 +7730,90 @@
         <v>75</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F200" s="10">
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="4:9">
       <c r="E201" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F201" s="10">
         <v>0.73529999999999995</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="4:9">
       <c r="E202" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F202" s="10">
         <v>0.44900000000000001</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="4:9">
       <c r="E203" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F203" s="10">
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204" spans="4:9">
       <c r="E204" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F204" s="10">
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="4:9">
       <c r="E205" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F205" s="10">
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="4:9">
       <c r="E206" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F206" s="10">
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="4:9">
       <c r="E207" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F207" s="10">
         <v>0.78459999999999996</v>
       </c>
       <c r="G207" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H207">
         <f>COUNTIF(G200:G207,"JA")</f>
@@ -7846,90 +7833,90 @@
         <v>90</v>
       </c>
       <c r="E209" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F209" s="10">
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="4:9">
       <c r="E210" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F210" s="10">
         <v>0.79100000000000004</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="4:9">
       <c r="E211" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F211" s="10">
         <v>0.5645</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="4:9">
       <c r="E212" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F212" s="10">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213" spans="4:9">
       <c r="E213" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F213" s="10">
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="214" spans="4:9">
       <c r="E214" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F214" s="10">
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="4:9">
       <c r="E215" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F215" s="10">
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="4:9">
       <c r="E216" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F216" s="10">
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H216">
         <f>COUNTIF(G209:G216,"JA")</f>
@@ -7945,14 +7932,14 @@
     </row>
     <row r="218" spans="4:9">
       <c r="E218" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F218" s="10">
         <f>AVERAGE(F2:F216)</f>
         <v>0.23748229166666665</v>
       </c>
       <c r="G218" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H218">
         <f>SUM(H2:H216)</f>
@@ -7961,7 +7948,7 @@
     </row>
     <row r="219" spans="4:9">
       <c r="E219" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F219" s="10">
         <f>SUM(F2:F216)/COUNTIF(G2:G216,"JA")</f>
@@ -7970,14 +7957,14 @@
     </row>
     <row r="220" spans="4:9">
       <c r="E220" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F220" s="10">
         <f>SUM(F2:F108)/COUNTIF(G2:G108,"JA")</f>
         <v>0.57286451612903233</v>
       </c>
       <c r="G220" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H220">
         <f>SUM(H2:H108)</f>
@@ -7986,14 +7973,14 @@
     </row>
     <row r="221" spans="4:9">
       <c r="E221" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F221" s="10">
         <f>SUM(F110:F216)/COUNTIF(G110:G216,"JA")</f>
         <v>0.67897073170731714</v>
       </c>
       <c r="G221" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H221">
         <f>SUM(H110:H216)</f>
@@ -8002,25 +7989,25 @@
     </row>
     <row r="223" spans="4:9">
       <c r="F223" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G223" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H223" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="4:9">
       <c r="E224" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F224" s="10">
         <f>SUM(F29:F54)/COUNTIF(G29:G54,"JA")</f>
         <v>0.4907285714285714</v>
       </c>
       <c r="G224" s="10">
-        <f>1-F224</f>
+        <f t="shared" ref="G224:G231" si="0">1-F224</f>
         <v>0.5092714285714286</v>
       </c>
       <c r="H224">
@@ -8029,14 +8016,14 @@
     </row>
     <row r="225" spans="5:8">
       <c r="E225" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F225" s="10">
         <f>SUM(F2:F27)/COUNTIF(G2:G27,"JA")</f>
         <v>0.48177999999999999</v>
       </c>
       <c r="G225" s="10">
-        <f>1-F225</f>
+        <f t="shared" si="0"/>
         <v>0.51822000000000001</v>
       </c>
       <c r="H225">
@@ -8045,14 +8032,14 @@
     </row>
     <row r="226" spans="5:8">
       <c r="E226" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F226" s="10">
         <f>SUM(F83:F108)/COUNTIF(G83:G108,"JA")</f>
         <v>0.7047000000000001</v>
       </c>
       <c r="G226" s="10">
-        <f>1-F226</f>
+        <f t="shared" si="0"/>
         <v>0.2952999999999999</v>
       </c>
       <c r="H226">
@@ -8061,14 +8048,14 @@
     </row>
     <row r="227" spans="5:8">
       <c r="E227" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F227" s="10">
         <f>SUM(F56:F81)/COUNTIF(G56:G81,"JA")</f>
         <v>0.66471111111111103</v>
       </c>
       <c r="G227" s="10">
-        <f>1-F227</f>
+        <f t="shared" si="0"/>
         <v>0.33528888888888897</v>
       </c>
       <c r="H227">
@@ -8077,14 +8064,14 @@
     </row>
     <row r="228" spans="5:8">
       <c r="E228" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F228" s="10">
         <f>SUM(F137:F162)/COUNTIF(G137:G162,"JA")</f>
         <v>0.70499999999999996</v>
       </c>
       <c r="G228" s="10">
-        <f>1-F228</f>
+        <f t="shared" si="0"/>
         <v>0.29500000000000004</v>
       </c>
       <c r="H228">
@@ -8093,14 +8080,14 @@
     </row>
     <row r="229" spans="5:8">
       <c r="E229" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F229" s="10">
         <f>SUM(F110:F135)/COUNTIF(G110:G135,"JA")</f>
         <v>0.58564285714285724</v>
       </c>
       <c r="G229" s="10">
-        <f>1-F229</f>
+        <f t="shared" si="0"/>
         <v>0.41435714285714276</v>
       </c>
       <c r="H229">
@@ -8109,14 +8096,14 @@
     </row>
     <row r="230" spans="5:8">
       <c r="E230" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F230" s="10">
         <f>SUM(F191:F216)/COUNTIF(G191:G216,"JA")</f>
         <v>0.64798750000000005</v>
       </c>
       <c r="G230" s="10">
-        <f>1-F230</f>
+        <f t="shared" si="0"/>
         <v>0.35201249999999995</v>
       </c>
       <c r="H230">
@@ -8125,14 +8112,14 @@
     </row>
     <row r="231" spans="5:8">
       <c r="E231" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F231" s="10">
         <f>SUM(F164:F189)/COUNTIF(G164:G189,"JA")</f>
         <v>0.76388333333333325</v>
       </c>
       <c r="G231" s="10">
-        <f>1-F231</f>
+        <f t="shared" si="0"/>
         <v>0.23611666666666675</v>
       </c>
       <c r="H231">
@@ -8141,7 +8128,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8156,7 +8142,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8167,33 +8153,33 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
       <c r="C2">
         <f>D2-B2</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -8208,7 +8194,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>105</v>
@@ -8223,24 +8209,24 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <f>D18-B18</f>
+        <f t="shared" ref="C18:C25" si="0">D18-B18</f>
         <v>24</v>
       </c>
       <c r="D18">
@@ -8249,13 +8235,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <f>D19-B19</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D19">
@@ -8264,13 +8250,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <f>D20-B20</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D20">
@@ -8279,13 +8265,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <f>D21-B21</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D21">
@@ -8294,13 +8280,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <f>D22-B22</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D22">
@@ -8309,13 +8295,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <f>D23-B23</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23">
@@ -8324,13 +8310,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <f>D24-B24</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24">
@@ -8339,13 +8325,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
       <c r="C25">
-        <f>D25-B25</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D25">
@@ -8354,7 +8340,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8369,8 +8354,8 @@
   <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8387,138 +8372,138 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5">
         <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="10">
         <v>0.41720000000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <f>COUNTIF(G2:G9,"JA")</f>
@@ -8539,104 +8524,104 @@
         <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <f>COUNTIF(G11:G18,"JA")</f>
         <v>0</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -8649,104 +8634,104 @@
         <v>90</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F26" s="10">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <f>COUNTIF(G20:G27,"JA")</f>
         <v>0</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="3:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -8755,103 +8740,103 @@
     </row>
     <row r="29" spans="3:9">
       <c r="C29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="E30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F30" s="10">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="E31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F31" s="10">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="E32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="4:9">
       <c r="E33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="4:9">
       <c r="E34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="4:9">
       <c r="E35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="4:9">
       <c r="E36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <f>COUNTIF(G29:G36,"JA")</f>
         <v>0</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -8863,97 +8848,97 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="4:9">
       <c r="E39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F39" s="10">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="4:9">
       <c r="E40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F40" s="10">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="4:9">
       <c r="E41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F41" s="10">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="4:9">
       <c r="E42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F42" s="10">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="4:9">
       <c r="E43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F43" s="10">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="4:9">
       <c r="E44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F44" s="10">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="4:9">
       <c r="E45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <f>COUNTIF(G38:G45,"JA")</f>
         <v>0</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -8965,97 +8950,97 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F47" s="10">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="4:9">
       <c r="E48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F48" s="10">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="E49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F49" s="10">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="E50" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F50" s="10">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="E51" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F51" s="10">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="E52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F52" s="10">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="E53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F53" s="10">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="E54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F54" s="10">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <f>COUNTIF(G47:G54,"JA")</f>
         <v>0</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -9064,106 +9049,106 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D56" s="5">
         <v>60</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F56" s="10">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F57" s="10">
         <v>0.81689999999999996</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F58" s="10">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="D59" s="5"/>
       <c r="E59" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F59" s="10">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="D60" s="5"/>
       <c r="E60" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F60" s="10">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F61" s="10">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="D62" s="5"/>
       <c r="E62" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F62" s="10">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F63" s="10">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <f>COUNTIF(G56:G63,"JA")</f>
@@ -9184,104 +9169,104 @@
         <v>75</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F65" s="10">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="4:9">
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F66" s="10">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="4:9">
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F67" s="10">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="4:9">
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F68" s="10">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="4:9">
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F69" s="10">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="4:9">
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F70" s="10">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="4:9">
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F71" s="10">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="4:9">
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <f>COUNTIF(G65:G72,"JA")</f>
         <v>0</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -9294,104 +9279,104 @@
         <v>90</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F74" s="10">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="4:9">
       <c r="D75" s="5"/>
       <c r="E75" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F75" s="10">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="4:9">
       <c r="D76" s="5"/>
       <c r="E76" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F76" s="10">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="4:9">
       <c r="D77" s="5"/>
       <c r="E77" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F77" s="10">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="4:9">
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F78" s="10">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="4:9">
       <c r="D79" s="5"/>
       <c r="E79" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F79" s="10">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="4:9">
       <c r="D80" s="5"/>
       <c r="E80" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F80" s="10">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="3:9">
       <c r="D81" s="5"/>
       <c r="E81" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F81" s="10">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <f>COUNTIF(G74:G81,"JA")</f>
         <v>0</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="3:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -9400,103 +9385,103 @@
     </row>
     <row r="83" spans="3:9">
       <c r="C83" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D83" s="4">
         <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F83" s="10">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="3:9">
       <c r="E84" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F84" s="10">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="3:9">
       <c r="E85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F85" s="10">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="3:9">
       <c r="E86" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F86" s="10">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="3:9">
       <c r="E87" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F87" s="10">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="3:9">
       <c r="E88" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F88" s="10">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="3:9">
       <c r="E89" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F89" s="10">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="3:9">
       <c r="E90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F90" s="10">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H90">
         <f>COUNTIF(G83:G90,"JA")</f>
         <v>0</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="3:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -9508,97 +9493,97 @@
         <v>75</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F92" s="10">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="3:9">
       <c r="E93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F93" s="10">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="3:9">
       <c r="E94" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F94" s="10">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="3:9">
       <c r="E95" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F95" s="10">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="3:9">
       <c r="E96" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F96" s="10">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="E97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F97" s="10">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="E98" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F98" s="10">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="E99" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F99" s="10">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <f>COUNTIF(G92:G99,"JA")</f>
         <v>0</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -9610,97 +9595,97 @@
         <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F101" s="10">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="E102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F102" s="10">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="E103" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F103" s="10">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="E104" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F104" s="10">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="E105" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F105" s="10">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="E106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F106" s="10">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="E107" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F107" s="10">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="E108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F108" s="10">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <f>COUNTIF(G101:G108,"JA")</f>
         <v>0</v>
       </c>
       <c r="I108" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="16" customFormat="1" ht="6" customHeight="1">
@@ -9709,116 +9694,116 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D110" s="5">
         <v>60</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F110" s="10">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="D111" s="5"/>
       <c r="E111" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F111" s="10">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="D112" s="5"/>
       <c r="E112" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F112" s="10">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="4:9">
       <c r="D113" s="5"/>
       <c r="E113" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F113" s="10">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="4:9">
       <c r="D114" s="5"/>
       <c r="E114" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F114" s="10">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="4:9">
       <c r="D115" s="5"/>
       <c r="E115" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F115" s="10">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="4:9">
       <c r="D116" s="5"/>
       <c r="E116" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F116" s="10">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="4:9">
       <c r="D117" s="5"/>
       <c r="E117" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F117" s="10">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <f>COUNTIF(G110:G117,"JA")</f>
         <v>0</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -9831,97 +9816,97 @@
         <v>75</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F119" s="10">
         <v>0.442</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="4:9">
       <c r="D120" s="5"/>
       <c r="E120" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F120" s="10">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="4:9">
       <c r="D121" s="5"/>
       <c r="E121" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F121" s="10">
         <v>0.28349999999999997</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="4:9">
       <c r="D122" s="5"/>
       <c r="E122" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F122" s="10">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="4:9">
       <c r="D123" s="5"/>
       <c r="E123" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F123" s="10">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="4:9">
       <c r="D124" s="5"/>
       <c r="E124" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F124" s="10">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="4:9">
       <c r="D125" s="5"/>
       <c r="E125" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F125" s="10">
         <v>0.72319999999999995</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="4:9">
       <c r="D126" s="5"/>
       <c r="E126" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F126" s="10">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <f>COUNTIF(G119:G126,"JA")</f>
@@ -9942,104 +9927,104 @@
         <v>90</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F128" s="10">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="3:9">
       <c r="D129" s="5"/>
       <c r="E129" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F129" s="10">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="D130" s="5"/>
       <c r="E130" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F130" s="10">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="D131" s="5"/>
       <c r="E131" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F131" s="10">
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="D132" s="5"/>
       <c r="E132" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F132" s="10">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="3:9">
       <c r="D133" s="5"/>
       <c r="E133" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F133" s="10">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="3:9">
       <c r="D134" s="5"/>
       <c r="E134" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F134" s="10">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="3:9">
       <c r="D135" s="5"/>
       <c r="E135" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F135" s="10">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H135">
         <f>COUNTIF(G128:G135,"JA")</f>
         <v>0</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="3:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -10048,103 +10033,103 @@
     </row>
     <row r="137" spans="3:9">
       <c r="C137" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D137" s="4">
         <v>60</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F137" s="10">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="3:9">
       <c r="E138" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F138" s="10">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="3:9">
       <c r="E139" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F139" s="10">
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="3:9">
       <c r="E140" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F140" s="10">
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="3:9">
       <c r="E141" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F141" s="10">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="3:9">
       <c r="E142" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F142" s="10">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="3:9">
       <c r="E143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F143" s="10">
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="3:9">
       <c r="E144" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F144" s="10">
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <f>COUNTIF(G137:G144,"JA")</f>
         <v>0</v>
       </c>
       <c r="I144" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -10156,97 +10141,97 @@
         <v>75</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F146" s="10">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="4:9">
       <c r="E147" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F147" s="10">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="4:9">
       <c r="E148" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F148" s="10">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="4:9">
       <c r="E149" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F149" s="10">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="4:9">
       <c r="E150" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F150" s="10">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="4:9">
       <c r="E151" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F151" s="10">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="4:9">
       <c r="E152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F152" s="10">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="4:9">
       <c r="E153" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F153" s="10">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <f>COUNTIF(G146:G153,"JA")</f>
         <v>0</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -10258,97 +10243,97 @@
         <v>90</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F155" s="10">
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="4:9">
       <c r="E156" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F156" s="10">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="4:9">
       <c r="E157" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F157" s="10">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="4:9">
       <c r="E158" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F158" s="10">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="4:9">
       <c r="E159" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F159" s="10">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="4:9">
       <c r="E160" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F160" s="10">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="2:9">
       <c r="E161" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F161" s="10">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="2:9">
       <c r="E162" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F162" s="10">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <f>COUNTIF(G155:G162,"JA")</f>
         <v>0</v>
       </c>
       <c r="I162" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="2:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -10357,106 +10342,106 @@
     </row>
     <row r="164" spans="2:9">
       <c r="B164" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D164" s="5">
         <v>60</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F164" s="10">
         <v>0.78610000000000002</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="2:9">
       <c r="D165" s="5"/>
       <c r="E165" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F165" s="10">
         <v>0.9002</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="2:9">
       <c r="D166" s="5"/>
       <c r="E166" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F166" s="10">
         <v>0.70879999999999999</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="2:9">
       <c r="D167" s="5"/>
       <c r="E167" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F167" s="10">
         <v>0.72970000000000002</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="2:9">
       <c r="D168" s="5"/>
       <c r="E168" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F168" s="10">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="2:9">
       <c r="D169" s="5"/>
       <c r="E169" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F169" s="10">
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="2:9">
       <c r="D170" s="5"/>
       <c r="E170" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F170" s="10">
         <v>0.82020000000000004</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="2:9">
       <c r="D171" s="5"/>
       <c r="E171" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F171" s="10">
         <v>0.91110000000000002</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <f>COUNTIF(G164:G171,"JA")</f>
@@ -10477,97 +10462,97 @@
         <v>75</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F173" s="10">
         <v>0.6633</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="2:9">
       <c r="D174" s="5"/>
       <c r="E174" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F174" s="10">
         <v>0.90480000000000005</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="2:9">
       <c r="D175" s="5"/>
       <c r="E175" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F175" s="10">
         <v>0.77500000000000002</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="2:9">
       <c r="D176" s="5"/>
       <c r="E176" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F176" s="10">
         <v>0.63039999999999996</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="3:9">
       <c r="D177" s="5"/>
       <c r="E177" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F177" s="10">
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="3:9">
       <c r="D178" s="5"/>
       <c r="E178" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F178" s="10">
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="3:9">
       <c r="D179" s="5"/>
       <c r="E179" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F179" s="10">
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="3:9">
       <c r="D180" s="5"/>
       <c r="E180" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F180" s="10">
         <v>0.89939999999999998</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <f>COUNTIF(G173:G180,"JA")</f>
@@ -10588,104 +10573,104 @@
         <v>90</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F182" s="10">
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="3:9">
       <c r="D183" s="5"/>
       <c r="E183" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F183" s="10">
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="3:9">
       <c r="D184" s="5"/>
       <c r="E184" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F184" s="10">
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="3:9">
       <c r="D185" s="5"/>
       <c r="E185" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F185" s="10">
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="3:9">
       <c r="D186" s="5"/>
       <c r="E186" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F186" s="10">
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="3:9">
       <c r="D187" s="5"/>
       <c r="E187" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F187" s="10">
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="3:9">
       <c r="D188" s="5"/>
       <c r="E188" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F188" s="10">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="3:9">
       <c r="D189" s="5"/>
       <c r="E189" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F189" s="10">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H189">
         <f>COUNTIF(G182:G189,"JA")</f>
         <v>0</v>
       </c>
       <c r="I189" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="3:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -10694,103 +10679,103 @@
     </row>
     <row r="191" spans="3:9">
       <c r="C191" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D191" s="4">
         <v>60</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F191" s="10">
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="3:9">
       <c r="E192" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F192" s="10">
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="4:9">
       <c r="E193" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F193" s="10">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="4:9">
       <c r="E194" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F194" s="10">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="4:9">
       <c r="E195" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F195" s="10">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="4:9">
       <c r="E196" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F196" s="10">
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="4:9">
       <c r="E197" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F197" s="10">
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="4:9">
       <c r="E198" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F198" s="10">
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H198">
         <f>COUNTIF(G191:G198,"JA")</f>
         <v>0</v>
       </c>
       <c r="I198" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="4:9" s="1" customFormat="1" ht="6" customHeight="1">
@@ -10802,90 +10787,90 @@
         <v>75</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F200" s="10">
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="4:9">
       <c r="E201" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F201" s="10">
         <v>0.79720000000000002</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="4:9">
       <c r="E202" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F202" s="10">
         <v>0.41170000000000001</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="4:9">
       <c r="E203" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F203" s="10">
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204" spans="4:9">
       <c r="E204" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F204" s="10">
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="4:9">
       <c r="E205" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F205" s="10">
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="4:9">
       <c r="E206" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F206" s="10">
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="4:9">
       <c r="E207" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F207" s="10">
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H207">
         <f>COUNTIF(G200:G207,"JA")</f>
@@ -10905,97 +10890,97 @@
         <v>90</v>
       </c>
       <c r="E209" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F209" s="10">
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="4:9">
       <c r="E210" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F210" s="10">
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="4:9">
       <c r="E211" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F211" s="10">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="212" spans="4:9">
       <c r="E212" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F212" s="10">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213" spans="4:9">
       <c r="E213" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F213" s="10">
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="214" spans="4:9">
       <c r="E214" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F214" s="10">
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="4:9">
       <c r="E215" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F215" s="10">
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="4:9">
       <c r="E216" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F216" s="10">
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H216">
         <f>COUNTIF(G209:G216,"JA")</f>
         <v>0</v>
       </c>
       <c r="I216" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" spans="4:9" s="20" customFormat="1" ht="6" customHeight="1">
@@ -11003,14 +10988,14 @@
     </row>
     <row r="218" spans="4:9">
       <c r="E218" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F218" s="10">
         <f>AVERAGE(F2:F216)</f>
         <v>6.5732812500000001E-2</v>
       </c>
       <c r="G218" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H218">
         <f>SUM(H2:H216)</f>
@@ -11019,7 +11004,7 @@
     </row>
     <row r="219" spans="4:9">
       <c r="E219" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F219" s="10">
         <f>(F201+F202+F180+F173+F174+F175+F176+F170+F171+F164+F165+F166+F167+F119+F121+F125+F57+F4)/COUNTIF(G2:G216,"JA")</f>
@@ -11028,14 +11013,14 @@
     </row>
     <row r="220" spans="4:9">
       <c r="E220" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F220" s="10">
         <f>SUM(F2:F108)/COUNTIF(G2:G108,"JA")</f>
         <v>0.61704999999999999</v>
       </c>
       <c r="G220" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H220">
         <f>SUM(H2:H108)</f>
@@ -11044,14 +11029,14 @@
     </row>
     <row r="221" spans="4:9">
       <c r="E221" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F221" s="10">
         <f>SUM(F110:F216)/COUNTIF(G110:G216,"JA")</f>
         <v>0.71166249999999998</v>
       </c>
       <c r="G221" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H221">
         <f>SUM(H110:H216)</f>
@@ -11060,24 +11045,24 @@
     </row>
     <row r="223" spans="4:9">
       <c r="F223" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G223" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H223" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="4:9">
       <c r="E224" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F224" s="10">
         <v>0</v>
       </c>
       <c r="G224" s="10">
-        <f>1-F224</f>
+        <f t="shared" ref="G224:G231" si="0">1-F224</f>
         <v>1</v>
       </c>
       <c r="H224">
@@ -11086,14 +11071,14 @@
     </row>
     <row r="225" spans="5:8">
       <c r="E225" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F225" s="10">
         <f>SUM(F2:F27)/COUNTIF(G2:G27,"JA")</f>
         <v>0.41720000000000002</v>
       </c>
       <c r="G225" s="10">
-        <f>1-F225</f>
+        <f t="shared" si="0"/>
         <v>0.58279999999999998</v>
       </c>
       <c r="H225">
@@ -11102,11 +11087,11 @@
     </row>
     <row r="226" spans="5:8">
       <c r="E226" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F226" s="10"/>
       <c r="G226" s="10">
-        <f>1-F226</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H226">
@@ -11115,14 +11100,14 @@
     </row>
     <row r="227" spans="5:8">
       <c r="E227" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F227" s="10">
         <f>SUM(F56:F81)/COUNTIF(G56:G81,"JA")</f>
         <v>0.81689999999999996</v>
       </c>
       <c r="G227" s="10">
-        <f>1-F227</f>
+        <f t="shared" si="0"/>
         <v>0.18310000000000004</v>
       </c>
       <c r="H227">
@@ -11135,7 +11120,7 @@
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="10">
-        <f>1-F228</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H228">
@@ -11144,14 +11129,14 @@
     </row>
     <row r="229" spans="5:8">
       <c r="E229" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F229" s="10">
         <f>SUM(F110:F135)/COUNTIF(G110:G135,"JA")</f>
         <v>0.48290000000000005</v>
       </c>
       <c r="G229" s="10">
-        <f>1-F229</f>
+        <f t="shared" si="0"/>
         <v>0.51709999999999989</v>
       </c>
       <c r="H229">
@@ -11160,14 +11145,14 @@
     </row>
     <row r="230" spans="5:8">
       <c r="E230" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F230" s="10">
         <f>SUM(F191:F216)/COUNTIF(G191:G216,"JA")</f>
         <v>0.60445000000000004</v>
       </c>
       <c r="G230" s="10">
-        <f>1-F230</f>
+        <f t="shared" si="0"/>
         <v>0.39554999999999996</v>
       </c>
       <c r="H230">
@@ -11176,14 +11161,14 @@
     </row>
     <row r="231" spans="5:8">
       <c r="E231" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F231" s="10">
         <f>SUM(F164:F189)/COUNTIF(G164:G189,"JA")</f>
         <v>0.79354545454545466</v>
       </c>
       <c r="G231" s="10">
-        <f>1-F231</f>
+        <f t="shared" si="0"/>
         <v>0.20645454545454534</v>
       </c>
       <c r="H231">
@@ -11192,7 +11177,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
